--- a/DATABASE/phantichcsdl.xlsx
+++ b/DATABASE/phantichcsdl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5D27FC-F898-4632-9A14-BD0E4C922377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E219C092-FB6E-48C0-B5F3-33E5CB7BB497}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -182,17 +182,119 @@
   </si>
   <si>
     <t>Varchar(100)</t>
+  </si>
+  <si>
+    <t>CTHD</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>khóa ngoại bảng DIENTHOAI</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+  </si>
+  <si>
+    <t>ThanhTien</t>
+  </si>
+  <si>
+    <t>TAIKHOAN</t>
+  </si>
+  <si>
+    <t>char(10)</t>
+  </si>
+  <si>
+    <t>Khóa chính, số điện thoại</t>
+  </si>
+  <si>
+    <t>HoTen</t>
+  </si>
+  <si>
+    <t>TaiKhoan</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>tên đăng nhập</t>
+  </si>
+  <si>
+    <t>MatKhau</t>
+  </si>
+  <si>
+    <t>AnhDaiDien</t>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+  </si>
+  <si>
+    <t>LoaiTK</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>1/0 (Admin/User)</t>
+  </si>
+  <si>
+    <t>1/0 (Active/Locked)</t>
+  </si>
+  <si>
+    <t>BINHLUAN</t>
+  </si>
+  <si>
+    <t>Khóa ngoại bảng TAIKHOAN</t>
+  </si>
+  <si>
+    <t>NoiDung</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>1/0 (Duyệt/ Chờ)</t>
+  </si>
+  <si>
+    <t>KHO</t>
+  </si>
+  <si>
+    <t>SLNhap</t>
+  </si>
+  <si>
+    <t>số lượng nhập</t>
+  </si>
+  <si>
+    <t>số lượng tồn</t>
+  </si>
+  <si>
+    <t>1/0 (còn hàng/ hết hàng)</t>
+  </si>
+  <si>
+    <t>SLIDESHOW</t>
+  </si>
+  <si>
+    <t>hình ảnh</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>Đang chờ/Đang giao/Giao thành công/ Đã hủy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -200,20 +302,58 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,31 +377,109 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,575 +760,1125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S4"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.9140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.75" customWidth="1"/>
-    <col min="22" max="22" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.77734375" customWidth="1"/>
+    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="M1" s="5" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="M1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="S1" s="5" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="S1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="Y1" s="4" t="s">
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="Y1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AE1" s="4" t="s">
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AE1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="N2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="T2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+      <c r="Z2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AF2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="3">
-        <v>1</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Y3" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2" t="s">
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AI3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="3">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="S4" s="3">
-        <v>2</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="S4" s="2">
+        <v>2</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="Y4" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="2" t="s">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AE4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AE4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AG4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="M5" s="3">
-        <v>3</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="Y5" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="2" t="s">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="Y5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AB5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AC5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="M6" s="3">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="M6" s="2">
         <v>4</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="O6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="Y6" s="3">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="Y6" s="2">
         <v>4</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="Z6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AA6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AB6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AC6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="3">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="M7" s="3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="2">
         <v>5</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="Y7" s="3">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="Y7" s="2">
         <v>5</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="G8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="M8" s="3">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="M8" s="2">
         <v>6</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="Y8" s="16">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="19" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>7</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="18"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>8</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G11" s="3">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:35" ht="13.95" x14ac:dyDescent="0.3">
+      <c r="G11" s="2">
         <v>9</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G12" s="3">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:35" ht="13.95" x14ac:dyDescent="0.3">
+      <c r="G12" s="2">
         <v>10</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="16" spans="1:35" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="G16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="M16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="12"/>
+      <c r="S16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="12"/>
+      <c r="Y16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="12"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" s="1">
+        <v>2</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="1">
+        <v>3</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="S20" s="1">
+        <v>3</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="M21" s="1">
+        <v>4</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="S21" s="1">
+        <v>4</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="M22" s="1">
+        <v>5</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="S22" s="1">
+        <v>5</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="G23" s="1">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G25" s="1">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G26" s="1">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="Y16:AC16"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>

--- a/DATABASE/phantichcsdl.xlsx
+++ b/DATABASE/phantichcsdl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E219C092-FB6E-48C0-B5F3-33E5CB7BB497}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA48E75A-4FB8-4260-8598-77A7B87A6BE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -67,12 +67,6 @@
     <t>DiaChiBaoHanh</t>
   </si>
   <si>
-    <t>LOAI</t>
-  </si>
-  <si>
-    <t>MaDT</t>
-  </si>
-  <si>
     <t>HinhAnh</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>Boolean</t>
   </si>
   <si>
-    <t>DIENTHOAI</t>
-  </si>
-  <si>
     <t>Ten</t>
   </si>
   <si>
@@ -115,18 +106,12 @@
     <t>Email</t>
   </si>
   <si>
-    <t>NHACUNG CAP</t>
-  </si>
-  <si>
     <t>KhuyenMai</t>
   </si>
   <si>
     <t>KHUYENMAI</t>
   </si>
   <si>
-    <t>MaHD</t>
-  </si>
-  <si>
     <t>ThoiGian</t>
   </si>
   <si>
@@ -142,27 +127,15 @@
     <t>Double</t>
   </si>
   <si>
-    <t>HOADON</t>
-  </si>
-  <si>
     <t>PTTT</t>
   </si>
   <si>
     <t>Khóa chính, tự tăng</t>
   </si>
   <si>
-    <t>Khóa ngoại bảng User</t>
-  </si>
-  <si>
     <t>Khóa ngoại bảng PTTT</t>
   </si>
   <si>
-    <t>Khóa ngoại bảng DIENTHOAI</t>
-  </si>
-  <si>
-    <t>Khóa ngoại bảng LOAI</t>
-  </si>
-  <si>
     <t>Khóa ngoại bảng NHACUNGCAP</t>
   </si>
   <si>
@@ -184,15 +157,9 @@
     <t>Varchar(100)</t>
   </si>
   <si>
-    <t>CTHD</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>khóa ngoại bảng DIENTHOAI</t>
-  </si>
-  <si>
     <t>SL</t>
   </si>
   <si>
@@ -284,6 +251,42 @@
   </si>
   <si>
     <t>Đang chờ/Đang giao/Giao thành công/ Đã hủy</t>
+  </si>
+  <si>
+    <t>LOAISP</t>
+  </si>
+  <si>
+    <t>CauHinh</t>
+  </si>
+  <si>
+    <t>DiaChiGiaoHang</t>
+  </si>
+  <si>
+    <t>DONHANG</t>
+  </si>
+  <si>
+    <t>CTDH</t>
+  </si>
+  <si>
+    <t>MaDH</t>
+  </si>
+  <si>
+    <t>NHACUNGCAP</t>
+  </si>
+  <si>
+    <t>SANPHAM</t>
+  </si>
+  <si>
+    <t>MaSP</t>
+  </si>
+  <si>
+    <t>Khóa ngoại bảng LOAISP</t>
+  </si>
+  <si>
+    <t>khóa ngoại bảng SANPHAM</t>
+  </si>
+  <si>
+    <t>Khóa ngoại bảng SANPHAM</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -454,11 +457,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -469,17 +471,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +783,7 @@
     <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="38.88671875" bestFit="1" customWidth="1"/>
@@ -796,48 +795,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="M1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="S1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="Y1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AE1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
+      <c r="A1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="G1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="M1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="S1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="Y1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AE1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -941,26 +940,26 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2">
         <v>1</v>
@@ -971,56 +970,56 @@
       <c r="O3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="S3" s="2">
         <v>1</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="Y3" s="2">
         <v>1</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AB3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AE3" s="2">
         <v>1</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="14" t="s">
+      <c r="AH3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
@@ -1031,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1044,20 +1043,20 @@
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="M4" s="2">
         <v>2</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1065,10 +1064,10 @@
         <v>2</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1076,10 +1075,10 @@
         <v>2</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -1087,10 +1086,10 @@
         <v>2</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -1111,10 +1110,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1122,10 +1121,10 @@
         <v>3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1133,17 +1132,13 @@
         <v>3</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -1155,20 +1150,20 @@
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1176,10 +1171,10 @@
         <v>4</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1187,16 +1182,16 @@
         <v>4</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="15" t="s">
+      <c r="AB6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
@@ -1207,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1215,7 +1210,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>6</v>
@@ -1226,10 +1221,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1237,13 +1232,17 @@
         <v>5</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -1253,7 +1252,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1261,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6</v>
@@ -1272,51 +1271,57 @@
         <v>6</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="Y8" s="16">
+      <c r="Y8" s="2">
         <v>6</v>
       </c>
-      <c r="Z8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA8" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="19" t="s">
-        <v>87</v>
-      </c>
+      <c r="Z8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G9" s="2">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="18"/>
+      <c r="Y9" s="2">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="17" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G10" s="2">
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6</v>
@@ -1324,68 +1329,68 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:35" ht="13.95" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G11" s="2">
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:35" ht="13.95" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G12" s="2">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="16" spans="1:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="G16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="12"/>
-      <c r="M16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-      <c r="S16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="12"/>
-      <c r="Y16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="12"/>
+      <c r="A16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="G16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+      <c r="M16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="13"/>
+      <c r="S16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="13"/>
+      <c r="Y16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="13"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -1469,61 +1474,61 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="P18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="S18" s="1">
         <v>1</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="Y18" s="1">
         <v>1</v>
@@ -1532,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
@@ -1546,25 +1551,25 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1572,44 +1577,44 @@
         <v>2</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S19" s="1">
+        <v>2</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="S19" s="1">
-        <v>2</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Y19" s="1">
         <v>2</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
@@ -1617,10 +1622,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1628,23 +1633,23 @@
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M20" s="1">
         <v>3</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1652,27 +1657,27 @@
         <v>3</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="Y20" s="5">
         <v>3</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
@@ -1680,10 +1685,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1691,10 +1696,10 @@
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1702,10 +1707,10 @@
         <v>4</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1716,13 +1721,13 @@
         <v>11</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" s="9" t="s">
         <v>12</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
@@ -1735,10 +1740,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1746,10 +1751,10 @@
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1757,27 +1762,27 @@
         <v>5</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="S22" s="1">
         <v>5</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
@@ -1790,10 +1795,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1801,10 +1806,10 @@
         <v>6</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1819,10 +1824,10 @@
         <v>7</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1837,14 +1842,14 @@
         <v>8</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -1857,14 +1862,14 @@
         <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -1874,17 +1879,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="Y16:AC16"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="Y16:AC16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DATABASE/phantichcsdl.xlsx
+++ b/DATABASE/phantichcsdl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA48E75A-4FB8-4260-8598-77A7B87A6BE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1043E2FD-2B8F-4896-A6B8-3A386CCA31B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
   <si>
     <t>STT</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Nvarchar(200)</t>
-  </si>
-  <si>
-    <t>Varchar(200)</t>
   </si>
   <si>
     <t>Varchar(10)</t>
@@ -459,7 +456,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -471,14 +476,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,7 +759,7 @@
   <dimension ref="A1:AI26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +781,7 @@
     <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8.77734375" customWidth="1"/>
@@ -795,48 +792,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="M1" s="10" t="s">
+      <c r="A1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="S1" s="10" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="M1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="S1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="Y1" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AE1" s="10" t="s">
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="Y1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AE1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -950,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
@@ -980,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>6</v>
@@ -989,13 +986,13 @@
         <v>12</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y3" s="2">
         <v>1</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>6</v>
@@ -1047,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M4" s="2">
         <v>2</v>
@@ -1078,7 +1075,7 @@
         <v>30</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -1089,7 +1086,7 @@
         <v>24</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -1113,7 +1110,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1132,10 +1129,10 @@
         <v>3</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -1174,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1191,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
@@ -1224,7 +1221,7 @@
         <v>27</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1305,15 +1302,15 @@
       <c r="Y9" s="2">
         <v>7</v>
       </c>
-      <c r="Z9" s="16" t="s">
+      <c r="Z9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AA9" s="16" t="s">
+      <c r="AA9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="17" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
@@ -1334,10 +1331,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1356,41 +1353,41 @@
       <c r="K12" s="1"/>
     </row>
     <row r="16" spans="1:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="G16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-      <c r="M16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="13"/>
-      <c r="S16" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="13"/>
-      <c r="Y16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="13"/>
+      <c r="A16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="G16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="M16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
+      <c r="S16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="17"/>
+      <c r="Y16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="17"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -1474,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>7</v>
@@ -1492,13 +1489,13 @@
         <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
@@ -1507,28 +1504,28 @@
         <v>26</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S18" s="1">
         <v>1</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y18" s="1">
         <v>1</v>
@@ -1537,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB18" s="8" t="s">
         <v>7</v>
@@ -1551,25 +1548,25 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1">
         <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1577,44 +1574,44 @@
         <v>2</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S19" s="1">
         <v>2</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y19" s="1">
         <v>2</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
@@ -1622,10 +1619,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1633,23 +1630,23 @@
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M20" s="1">
         <v>3</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1660,11 +1657,11 @@
         <v>21</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y20" s="5">
         <v>3</v>
@@ -1673,11 +1670,11 @@
         <v>15</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
@@ -1688,7 +1685,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1696,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1710,7 +1707,7 @@
         <v>30</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1721,7 +1718,7 @@
         <v>11</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V21" s="9" t="s">
         <v>12</v>
@@ -1743,7 +1740,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1751,10 +1748,10 @@
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1765,11 +1762,11 @@
         <v>22</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S22" s="1">
         <v>5</v>
@@ -1778,11 +1775,11 @@
         <v>22</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
@@ -1795,10 +1792,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1809,7 +1806,7 @@
         <v>27</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1827,7 +1824,7 @@
         <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1842,14 +1839,14 @@
         <v>8</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
@@ -1865,11 +1862,11 @@
         <v>22</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -1879,17 +1876,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="Y16:AC16"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="Y16:AC16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DATABASE/phantichcsdl.xlsx
+++ b/DATABASE/phantichcsdl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1043E2FD-2B8F-4896-A6B8-3A386CCA31B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C3E9A-A7B7-4AD8-8EEE-391E10A7AD81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>KhuyenMai</t>
-  </si>
-  <si>
     <t>KHUYENMAI</t>
   </si>
   <si>
@@ -284,6 +281,60 @@
   </si>
   <si>
     <t>Khóa ngoại bảng SANPHAM</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>MaKM</t>
+  </si>
+  <si>
+    <t>TenKM</t>
+  </si>
+  <si>
+    <t>NoiDungKM</t>
+  </si>
+  <si>
+    <t>NgayBatDau</t>
+  </si>
+  <si>
+    <t>NgayKetThuc</t>
+  </si>
+  <si>
+    <t>MaBL</t>
+  </si>
+  <si>
+    <t>khóa chính, tự tặng</t>
+  </si>
+  <si>
+    <t>MaKho</t>
+  </si>
+  <si>
+    <t>khóa chính, tự tăng</t>
+  </si>
+  <si>
+    <t>1/0 (Kinh doanh/ Ngừng kinh doanh)</t>
+  </si>
+  <si>
+    <t>TenPTTT</t>
+  </si>
+  <si>
+    <t>khóa ngoại bảng KHUYENMAI</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>CTKM</t>
+  </si>
+  <si>
+    <t>CTKM+AE20:AI20</t>
+  </si>
+  <si>
+    <t>MaCT</t>
+  </si>
+  <si>
+    <t>Khóa ngoại bảng KHUYENMAI</t>
   </si>
 </sst>
 </file>
@@ -439,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -461,12 +512,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -476,6 +521,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI26"/>
+  <dimension ref="A1:AI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +828,7 @@
     <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
@@ -776,9 +837,9 @@
     <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.21875" bestFit="1" customWidth="1"/>
@@ -788,47 +849,47 @@
     <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
-      <c r="G1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="G1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
       <c r="M1" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="12"/>
       <c r="S1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T1" s="12"/>
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
       <c r="W1" s="12"/>
-      <c r="Y1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
+      <c r="Y1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
       <c r="AE1" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF1" s="12"/>
       <c r="AG1" s="12"/>
@@ -941,13 +1002,13 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>6</v>
@@ -956,7 +1017,7 @@
         <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2">
         <v>1</v>
@@ -971,28 +1032,26 @@
         <v>7</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S3" s="2">
         <v>1</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="V3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="1"/>
       <c r="Y3" s="2">
         <v>1</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>6</v>
@@ -1001,13 +1060,13 @@
         <v>7</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE3" s="2">
         <v>1</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>6</v>
@@ -1016,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
@@ -1027,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1044,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M4" s="2">
         <v>2</v>
@@ -1053,7 +1112,7 @@
         <v>24</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1061,10 +1120,10 @@
         <v>2</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1072,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -1083,10 +1142,10 @@
         <v>2</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -1110,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1121,18 +1180,29 @@
         <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
+      <c r="S5" s="2">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
       <c r="Y5" s="2">
         <v>3</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -1151,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
@@ -1160,7 +1230,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1171,15 +1241,26 @@
         <v>26</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
+      <c r="S6" s="2">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
       <c r="Y6" s="2">
         <v>4</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>6</v>
@@ -1188,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
@@ -1199,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1210,7 +1291,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1221,15 +1302,26 @@
         <v>27</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
+      <c r="S7" s="2">
+        <v>5</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
       <c r="Y7" s="2">
         <v>5</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>6</v>
@@ -1238,7 +1330,7 @@
         <v>12</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
@@ -1249,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1275,19 +1367,43 @@
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
+      <c r="S8" s="2">
+        <v>6</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
       <c r="Y8" s="2">
         <v>6</v>
       </c>
       <c r="Z8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="G9" s="2">
         <v>7</v>
       </c>
@@ -1306,11 +1422,11 @@
         <v>22</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
@@ -1331,10 +1447,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1354,42 +1470,49 @@
     </row>
     <row r="16" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
-      <c r="G16" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="M16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
-      <c r="S16" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="17"/>
-      <c r="Y16" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="17"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="G16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
+      <c r="M16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15"/>
+      <c r="S16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="Y16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="15"/>
+      <c r="AE16" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="15"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1465,266 +1588,330 @@
       <c r="AC17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="AE17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="1">
+        <v>35</v>
+      </c>
+      <c r="G18" s="18">
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="J18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="1">
+        <v>49</v>
+      </c>
+      <c r="M18" s="18">
         <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S18" s="1">
+        <v>94</v>
+      </c>
+      <c r="S18" s="18">
         <v>1</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y18" s="1">
+        <v>96</v>
+      </c>
+      <c r="Y18" s="18">
         <v>1</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB18" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+        <v>35</v>
+      </c>
+      <c r="AE18" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="1">
+        <v>85</v>
+      </c>
+      <c r="G19" s="18">
         <v>2</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="M19" s="1">
+      <c r="M19" s="18">
         <v>2</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S19" s="1">
+        <v>62</v>
+      </c>
+      <c r="S19" s="18">
         <v>2</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V19" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="W19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y19" s="1">
+        <v>86</v>
+      </c>
+      <c r="Y19" s="18">
         <v>2</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB19" s="9" t="s">
         <v>12</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+        <v>86</v>
+      </c>
+      <c r="AE19" s="18">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="G20" s="1">
+      <c r="G20" s="18">
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="1">
+        <v>53</v>
+      </c>
+      <c r="M20" s="18">
         <v>3</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="S20" s="1">
+        <v>43</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S20" s="18">
         <v>3</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y20" s="5">
+        <v>68</v>
+      </c>
+      <c r="Y20" s="19">
         <v>3</v>
       </c>
       <c r="Z20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+        <v>72</v>
+      </c>
+      <c r="AE20" s="18">
+        <v>3</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="G21" s="1">
+      <c r="G21" s="18">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="M21" s="1">
+      <c r="M21" s="18">
         <v>4</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="S21" s="1">
+      <c r="S21" s="18">
         <v>4</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>12</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="V21" s="1"/>
       <c r="W21" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
@@ -1732,54 +1919,58 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="G22" s="1">
+        <v>43</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="18">
         <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="M22" s="1">
+      <c r="M22" s="18">
         <v>5</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="S22" s="1">
+      <c r="N22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="S22" s="18">
         <v>5</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V22" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="W22" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
@@ -1787,106 +1978,118 @@
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="G23" s="1">
+      <c r="G23" s="18">
         <v>6</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G24" s="1">
+      <c r="M23" s="18">
+        <v>6</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23" s="18">
+        <v>6</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="G24" s="18">
         <v>7</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G25" s="1">
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="G25" s="18">
         <v>8</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="G26" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="G26" s="18">
         <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="18" x14ac:dyDescent="0.35">
+      <c r="AC27" s="21" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="Y16:AC16"/>
+  <mergeCells count="12">
+    <mergeCell ref="AE16:AI16"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="Y16:AC16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DATABASE/phantichcsdl.xlsx
+++ b/DATABASE/phantichcsdl.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126C3E9A-A7B7-4AD8-8EEE-391E10A7AD81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFC4412-EE10-4998-B215-E088B2D80EFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="107">
   <si>
     <t>STT</t>
   </si>
@@ -37,18 +37,12 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>MaLoai</t>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
     <t>PRIMARY KEY</t>
   </si>
   <si>
-    <t>TenLoai</t>
-  </si>
-  <si>
     <t>MoTa</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>DanhGia</t>
   </si>
   <si>
-    <t>Float</t>
-  </si>
-  <si>
     <t>SLTon</t>
   </si>
   <si>
@@ -166,24 +157,12 @@
     <t>TAIKHOAN</t>
   </si>
   <si>
-    <t>char(10)</t>
-  </si>
-  <si>
-    <t>Khóa chính, số điện thoại</t>
-  </si>
-  <si>
     <t>HoTen</t>
   </si>
   <si>
-    <t>TaiKhoan</t>
-  </si>
-  <si>
     <t>varchar(100)</t>
   </si>
   <si>
-    <t>tên đăng nhập</t>
-  </si>
-  <si>
     <t>MatKhau</t>
   </si>
   <si>
@@ -199,9 +178,6 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>1/0 (Admin/User)</t>
-  </si>
-  <si>
     <t>1/0 (Active/Locked)</t>
   </si>
   <si>
@@ -220,21 +196,6 @@
     <t>1/0 (Duyệt/ Chờ)</t>
   </si>
   <si>
-    <t>KHO</t>
-  </si>
-  <si>
-    <t>SLNhap</t>
-  </si>
-  <si>
-    <t>số lượng nhập</t>
-  </si>
-  <si>
-    <t>số lượng tồn</t>
-  </si>
-  <si>
-    <t>1/0 (còn hàng/ hết hàng)</t>
-  </si>
-  <si>
     <t>SLIDESHOW</t>
   </si>
   <si>
@@ -247,9 +208,6 @@
     <t>Đang chờ/Đang giao/Giao thành công/ Đã hủy</t>
   </si>
   <si>
-    <t>LOAISP</t>
-  </si>
-  <si>
     <t>CauHinh</t>
   </si>
   <si>
@@ -307,9 +265,6 @@
     <t>khóa chính, tự tặng</t>
   </si>
   <si>
-    <t>MaKho</t>
-  </si>
-  <si>
     <t>khóa chính, tự tăng</t>
   </si>
   <si>
@@ -325,16 +280,67 @@
     <t>float</t>
   </si>
   <si>
-    <t>CTKM</t>
-  </si>
-  <si>
     <t>CTKM+AE20:AI20</t>
   </si>
   <si>
-    <t>MaCT</t>
-  </si>
-  <si>
-    <t>Khóa ngoại bảng KHUYENMAI</t>
+    <t>MAUSP</t>
+  </si>
+  <si>
+    <t>MaMau</t>
+  </si>
+  <si>
+    <t>TenMau</t>
+  </si>
+  <si>
+    <t>TenSP</t>
+  </si>
+  <si>
+    <t>TrangThaiDonHang</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>DANHGIA</t>
+  </si>
+  <si>
+    <t>khóa ngoại bảng TAIKHOAN</t>
+  </si>
+  <si>
+    <t>vote bao nhiêu sao</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Khóa chính, emali</t>
+  </si>
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
+    <t>BAOHANH</t>
+  </si>
+  <si>
+    <t>NgayMua</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>ngày mua</t>
+  </si>
+  <si>
+    <t>TGBH</t>
+  </si>
+  <si>
+    <t>thời gian bảo hành</t>
+  </si>
+  <si>
+    <t>ngày kết thúc</t>
+  </si>
+  <si>
+    <t>1/0 (Bảo hành/Kết thúc)</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -509,9 +515,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,21 +539,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI27"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+      <selection activeCell="A24" sqref="A24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -831,8 +841,8 @@
     <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
@@ -841,60 +851,60 @@
     <col min="21" max="21" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="38.88671875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8.77734375" customWidth="1"/>
-    <col min="32" max="32" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="S1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="Y1" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AE1" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
+      <c r="A1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="M1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="S1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="Y1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AE1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -993,89 +1003,89 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2">
         <v>1</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="W3" s="1"/>
       <c r="Y3" s="2">
         <v>1</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="AC3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE3" s="2">
         <v>1</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AG3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="AI3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
@@ -1083,10 +1093,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1094,25 +1104,21 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="1"/>
       <c r="M4" s="2">
         <v>2</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1120,10 +1126,10 @@
         <v>2</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1131,10 +1137,10 @@
         <v>2</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -1142,10 +1148,10 @@
         <v>2</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -1155,10 +1161,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1166,21 +1172,21 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="1"/>
       <c r="M5" s="2">
         <v>3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1188,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1199,10 +1205,10 @@
         <v>3</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -1212,36 +1218,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="M6" s="2">
         <v>4</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1249,10 +1259,10 @@
         <v>4</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1260,16 +1270,16 @@
         <v>4</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
@@ -1277,10 +1287,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1288,10 +1298,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1299,10 +1309,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1310,10 +1320,10 @@
         <v>5</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1321,16 +1331,16 @@
         <v>5</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
@@ -1338,10 +1348,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1349,10 +1359,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1360,10 +1370,10 @@
         <v>6</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1371,10 +1381,10 @@
         <v>6</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1382,36 +1392,36 @@
         <v>6</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1419,14 +1429,14 @@
         <v>7</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
@@ -1434,662 +1444,691 @@
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
+      <c r="Y10" s="14">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G11" s="2">
         <v>9</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="H11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G12" s="2">
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="16" spans="1:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="G13" s="2">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="G14" s="2">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="18" spans="1:35" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="G18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="M18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="20"/>
+      <c r="S18" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="20"/>
+      <c r="Y18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="20"/>
+      <c r="AE18" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="20"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" s="12">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="G16" s="13" t="s">
+      <c r="O20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" s="12">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="12">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="M16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
-      <c r="S16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="Y16" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="15"/>
-      <c r="AE16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="15"/>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="18">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S18" s="18">
-        <v>1</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y18" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE18" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="18">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="M19" s="18">
-        <v>2</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S19" s="18">
-        <v>2</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y19" s="18">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE19" s="18">
-        <v>2</v>
-      </c>
-      <c r="AF19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI19" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="G20" s="18">
-        <v>3</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="18">
-        <v>3</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S20" s="18">
-        <v>3</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y20" s="19">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE20" s="18">
-        <v>3</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="G21" s="18">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="M21" s="18">
-        <v>4</v>
+      <c r="M21" s="12">
+        <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="S21" s="18">
-        <v>4</v>
+        <v>46</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" s="12">
+        <v>2</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V21" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="W21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="1"/>
+      <c r="AE21" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
-        <v>5</v>
+      <c r="A22" s="12">
+        <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="18">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="G22" s="12">
+        <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="M22" s="18">
-        <v>5</v>
+      <c r="M22" s="12">
+        <v>3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="S22" s="18">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S22" s="12">
+        <v>3</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
+        <v>94</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE22" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>6</v>
+      <c r="A23" s="12">
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="G23" s="18">
-        <v>6</v>
+      <c r="G23" s="12">
+        <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="M23" s="18">
-        <v>6</v>
+      <c r="M23" s="12">
+        <v>4</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S23" s="18">
-        <v>6</v>
+      <c r="Q23" s="1"/>
+      <c r="S23" s="12">
+        <v>4</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
+      </c>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AE23" s="12">
+        <v>4</v>
+      </c>
+      <c r="AF23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G24" s="18">
-        <v>7</v>
+      <c r="A24" s="12">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="12">
+        <v>5</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
+      <c r="M24" s="12">
+        <v>5</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AE24" s="12">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G25" s="18">
+      <c r="G25" s="12">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="M25" s="12">
+        <v>6</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25" s="16"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="AE25" s="12">
+        <v>6</v>
+      </c>
+      <c r="AF25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="G26" s="12">
+        <v>7</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="G27" s="12">
         <v>8</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G26" s="18">
-        <v>9</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" ht="18" x14ac:dyDescent="0.35">
-      <c r="AC27" s="21" t="s">
-        <v>102</v>
+      <c r="H27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="G28" s="16"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:35" ht="18" x14ac:dyDescent="0.35">
+      <c r="AC29" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="AE18:AI18"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="S1:W1"/>
     <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="Y18:AC18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DATABASE/phantichcsdl.xlsx
+++ b/DATABASE/phantichcsdl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFC4412-EE10-4998-B215-E088B2D80EFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB23C685-D3DE-4CEE-A3C3-BBFB588BD239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="118">
   <si>
     <t>STT</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Text</t>
   </si>
   <si>
-    <t>MaNCC</t>
-  </si>
-  <si>
     <t>FOREIGN KEY</t>
   </si>
   <si>
@@ -103,12 +100,6 @@
     <t>ThoiGian</t>
   </si>
   <si>
-    <t>MaKH</t>
-  </si>
-  <si>
-    <t>MaPTTT</t>
-  </si>
-  <si>
     <t>TongTien</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
     <t>SANPHAM</t>
   </si>
   <si>
-    <t>MaSP</t>
-  </si>
-  <si>
     <t>Khóa ngoại bảng LOAISP</t>
   </si>
   <si>
@@ -244,9 +232,6 @@
     <t>varchar(10)</t>
   </si>
   <si>
-    <t>MaKM</t>
-  </si>
-  <si>
     <t>TenKM</t>
   </si>
   <si>
@@ -259,9 +244,6 @@
     <t>NgayKetThuc</t>
   </si>
   <si>
-    <t>MaBL</t>
-  </si>
-  <si>
     <t>khóa chính, tự tặng</t>
   </si>
   <si>
@@ -286,9 +268,6 @@
     <t>MAUSP</t>
   </si>
   <si>
-    <t>MaMau</t>
-  </si>
-  <si>
     <t>TenMau</t>
   </si>
   <si>
@@ -313,9 +292,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Khóa chính, emali</t>
-  </si>
-  <si>
     <t>IMEI</t>
   </si>
   <si>
@@ -341,6 +317,63 @@
   </si>
   <si>
     <t>1/0 (Bảo hành/Kết thúc)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IDSP</t>
+  </si>
+  <si>
+    <t>IDNCC</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Uniqe</t>
+  </si>
+  <si>
+    <t>Khóa chính tự tăng</t>
+  </si>
+  <si>
+    <t>ID_TK</t>
+  </si>
+  <si>
+    <t>ID_SP</t>
+  </si>
+  <si>
+    <t>ID_PTTT</t>
+  </si>
+  <si>
+    <t>ID_Mau</t>
+  </si>
+  <si>
+    <t>ID_KM</t>
   </si>
 </sst>
 </file>
@@ -351,7 +384,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -359,7 +392,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -367,7 +400,7 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -375,7 +408,7 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -383,7 +416,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -391,7 +424,7 @@
       <b/>
       <sz val="11"/>
       <color theme="9"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -496,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -546,6 +579,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,77 +865,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E24"/>
+    <sheetView tabSelected="1" topLeftCell="AC7" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.75" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.77734375" customWidth="1"/>
+    <col min="21" max="21" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.08203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.58203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.9140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.75" customWidth="1"/>
     <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="20" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="G1" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
       <c r="M1" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
       <c r="Q1" s="21"/>
       <c r="S1" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
       <c r="Y1" s="23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="23"/>
       <c r="AA1" s="23"/>
       <c r="AB1" s="23"/>
       <c r="AC1" s="23"/>
       <c r="AE1" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AF1" s="21"/>
       <c r="AG1" s="21"/>
@@ -1003,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1012,13 +1048,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>5</v>
@@ -1027,13 +1063,13 @@
         <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>5</v>
@@ -1042,13 +1078,13 @@
         <v>6</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S3" s="2">
         <v>1</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>5</v>
@@ -1061,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>5</v>
@@ -1070,13 +1106,13 @@
         <v>6</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE3" s="2">
         <v>1</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="AG3" s="1" t="s">
         <v>5</v>
@@ -1085,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
@@ -1093,10 +1129,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1104,10 +1140,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="1"/>
@@ -1115,10 +1151,10 @@
         <v>2</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1126,10 +1162,10 @@
         <v>2</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1137,10 +1173,10 @@
         <v>2</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
@@ -1148,10 +1184,10 @@
         <v>2</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -1172,10 +1208,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="1"/>
@@ -1183,10 +1219,10 @@
         <v>3</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1194,10 +1230,10 @@
         <v>3</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1205,10 +1241,10 @@
         <v>3</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -1218,40 +1254,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M6" s="2">
         <v>4</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1259,10 +1295,10 @@
         <v>4</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1270,16 +1306,16 @@
         <v>4</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
@@ -1287,10 +1323,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1298,10 +1334,10 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1309,10 +1345,10 @@
         <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1320,10 +1356,10 @@
         <v>5</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1331,16 +1367,16 @@
         <v>5</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
@@ -1348,10 +1384,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1359,10 +1395,10 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1370,10 +1406,10 @@
         <v>6</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1381,10 +1417,10 @@
         <v>6</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1392,10 +1428,10 @@
         <v>6</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
@@ -1405,23 +1441,23 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2">
         <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1429,14 +1465,14 @@
         <v>7</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
@@ -1444,7 +1480,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>5</v>
@@ -1455,10 +1491,10 @@
         <v>8</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
@@ -1468,16 +1504,16 @@
         <v>9</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
@@ -1485,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>5</v>
@@ -1498,10 +1534,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1511,52 +1547,52 @@
         <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="18" spans="1:35" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" ht="18" x14ac:dyDescent="0.4">
       <c r="A18" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="G18" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
       <c r="M18" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="20"/>
       <c r="S18" s="18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="T18" s="19"/>
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="20"/>
       <c r="Y18" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Z18" s="19"/>
       <c r="AA18" s="19"/>
       <c r="AB18" s="19"/>
       <c r="AC18" s="20"/>
       <c r="AE18" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
@@ -1660,91 +1696,91 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="12">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="M20" s="12">
         <v>1</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="S20" s="12">
         <v>1</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Y20" s="12">
         <v>1</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE20" s="12">
         <v>1</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
@@ -1752,66 +1788,68 @@
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="12">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="M21" s="12">
         <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S21" s="12">
         <v>2</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Y21" s="12">
         <v>2</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="1"/>
@@ -1819,10 +1857,10 @@
         <v>2</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AH21" s="9"/>
       <c r="AI21" s="1"/>
@@ -1832,21 +1870,21 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="G22" s="12">
-        <v>3</v>
+      <c r="G22" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1854,57 +1892,57 @@
         <v>3</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="S22" s="12">
         <v>3</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="Y22" s="13">
         <v>3</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AE22" s="12">
         <v>3</v>
       </c>
       <c r="AF22" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AH22" s="9"/>
       <c r="AI22" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
@@ -1912,21 +1950,21 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="G23" s="12">
-        <v>4</v>
+      <c r="G23" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1934,10 +1972,10 @@
         <v>4</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -1945,14 +1983,14 @@
         <v>4</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
@@ -1963,14 +2001,14 @@
         <v>4</v>
       </c>
       <c r="AF23" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="AG23" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH23" s="1"/>
       <c r="AI23" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
@@ -1978,21 +2016,21 @@
         <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="G24" s="12">
-        <v>5</v>
+      <c r="G24" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2000,10 +2038,10 @@
         <v>5</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2021,25 +2059,25 @@
         <v>5</v>
       </c>
       <c r="AF24" s="10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AG24" s="10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AH24" s="1"/>
       <c r="AI24" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G25" s="12">
-        <v>6</v>
+      <c r="G25" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2047,14 +2085,14 @@
         <v>6</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S25" s="16"/>
       <c r="T25" s="6"/>
@@ -2065,54 +2103,61 @@
         <v>6</v>
       </c>
       <c r="AF25" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG25" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AH25" s="1"/>
       <c r="AI25" s="10" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G26" s="12">
-        <v>7</v>
+      <c r="G26" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G27" s="12">
-        <v>8</v>
+      <c r="G27" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G28" s="16"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:35" ht="18" x14ac:dyDescent="0.35">
+      <c r="G28" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="18" x14ac:dyDescent="0.4">
+      <c r="G29" s="16"/>
       <c r="AC29" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/DATABASE/phantichcsdl.xlsx
+++ b/DATABASE/phantichcsdl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB23C685-D3DE-4CEE-A3C3-BBFB588BD239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BF01DF-ED47-4B9E-B753-E72C06AECFED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="121">
   <si>
     <t>STT</t>
   </si>
@@ -374,6 +374,15 @@
   </si>
   <si>
     <t>ID_KM</t>
+  </si>
+  <si>
+    <t>HINHANH</t>
+  </si>
+  <si>
+    <t>TenHinh</t>
+  </si>
+  <si>
+    <t>khóa ngoại,  bảng sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -562,6 +571,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,9 +591,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC7" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7:AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -899,48 +908,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="G1" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="M1" s="21" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="M1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="S1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="Y1" s="23" t="s">
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="Y1" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AE1" s="21" t="s">
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AE1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1318,7 +1327,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="18" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1378,6 +1387,13 @@
       <c r="AC7" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AE7" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="21"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -1435,6 +1451,21 @@
       </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
+      <c r="AE8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
@@ -1474,6 +1505,21 @@
       <c r="AC9" s="11" t="s">
         <v>58</v>
       </c>
+      <c r="AE9" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G10" s="2">
@@ -1498,6 +1544,21 @@
       </c>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
+      <c r="AE10" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G11" s="2">
@@ -1515,6 +1576,17 @@
       <c r="K11" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="AE11" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G12" s="2">
@@ -1555,49 +1627,96 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
+    <row r="15" spans="1:35" ht="18" x14ac:dyDescent="0.4">
+      <c r="AE15" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="21"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AE17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="18" spans="1:35" ht="18" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="G18" s="18" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="G18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="M18" s="18" t="s">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="M18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
-      <c r="S18" s="18" t="s">
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
+      <c r="S18" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="20"/>
-      <c r="Y18" s="18" t="s">
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="21"/>
+      <c r="Y18" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="Z18" s="19"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="20"/>
-      <c r="AE18" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF18" s="19"/>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="21"/>
+      <c r="AE18" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -1675,20 +1794,18 @@
       <c r="AC19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>4</v>
+      <c r="AE19" s="12">
+        <v>3</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
@@ -1707,7 +1824,7 @@
       <c r="E20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="18" t="s">
         <v>102</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -1768,19 +1885,17 @@
         <v>29</v>
       </c>
       <c r="AE20" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AH20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI20" s="1" t="s">
-        <v>75</v>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
@@ -1799,7 +1914,7 @@
       <c r="E21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="18" t="s">
         <v>103</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1854,16 +1969,18 @@
       <c r="AB21" s="9"/>
       <c r="AC21" s="1"/>
       <c r="AE21" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="AF21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="10" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
@@ -1877,7 +1994,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="18" t="s">
         <v>104</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1932,17 +2049,17 @@
         <v>56</v>
       </c>
       <c r="AE22" s="12">
-        <v>3</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="1" t="s">
-        <v>94</v>
+        <v>6</v>
+      </c>
+      <c r="AF22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG22" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
@@ -1957,7 +2074,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="18" t="s">
         <v>105</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1997,19 +2114,6 @@
       <c r="AA23" s="7"/>
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
-      <c r="AE23" s="12">
-        <v>4</v>
-      </c>
-      <c r="AF23" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="10" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
@@ -2023,7 +2127,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="18" t="s">
         <v>106</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2055,22 +2159,9 @@
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
-      <c r="AE24" s="12">
-        <v>5</v>
-      </c>
-      <c r="AF24" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG24" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="10" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="18" t="s">
         <v>107</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -2099,22 +2190,9 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-      <c r="AE25" s="12">
-        <v>6</v>
-      </c>
-      <c r="AF25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG25" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="10" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="18" t="s">
         <v>108</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -2127,7 +2205,7 @@
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="18" t="s">
         <v>109</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -2140,7 +2218,7 @@
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="18" t="s">
         <v>110</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -2161,8 +2239,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AE18:AI18"/>
+  <mergeCells count="13">
+    <mergeCell ref="AE15:AI15"/>
     <mergeCell ref="AE1:AI1"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:K1"/>
@@ -2174,6 +2252,7 @@
     <mergeCell ref="M18:Q18"/>
     <mergeCell ref="S18:W18"/>
     <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="AE7:AI7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
